--- a/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_1_river_assessment_202108.xlsx
+++ b/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_1_river_assessment_202108.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Togo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbandubad\Repositories\dsa-forms\ONCHO\Breeding Site Survey\Togo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D485ECF6-EA62-4783-82D2-29FBC865A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="25785" windowHeight="13980" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -188,12 +187,6 @@
     <t>Fonctionne mieux à l'extérieur des batiments</t>
   </si>
   <si>
-    <t>Notes additionnelles</t>
-  </si>
-  <si>
-    <t>(Août 2021) 1. Enquête Entomologique d'ONCHO - Inspection de la rivière</t>
-  </si>
-  <si>
     <t>region_list</t>
   </si>
   <si>
@@ -284,9 +277,6 @@
     <t>select_one code_site</t>
   </si>
   <si>
-    <t>tg_oncho_bsa_1_river_assessment_202108</t>
-  </si>
-  <si>
     <t>r_SiteSuitable</t>
   </si>
   <si>
@@ -335,9 +325,6 @@
     <t>++ (11 - 50)</t>
   </si>
   <si>
-    <t>+++ (more than 50)</t>
-  </si>
-  <si>
     <t>larvae_rate</t>
   </si>
   <si>
@@ -345,12 +332,24 @@
   </si>
   <si>
     <t>${r_EvidenceOfLarvae} = 'Oui'</t>
+  </si>
+  <si>
+    <t>Informations additionnelles</t>
+  </si>
+  <si>
+    <t>+++ (plus de 50)</t>
+  </si>
+  <si>
+    <t>(Août 2021) 1. Enquête Entomologique d'ONCHO - Inspection de la rivière v2</t>
+  </si>
+  <si>
+    <t>tg_oncho_bsa_1_river_assessment_202108_v2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -761,34 +760,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.609375" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="5" max="5" width="12.625" customWidth="1"/>
+    <col min="6" max="6" width="16.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="20.38671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.609375" customWidth="1"/>
-    <col min="10" max="10" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.38671875" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.375" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -829,7 +828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -844,10 +843,10 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="3"/>
@@ -857,9 +856,9 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>28</v>
@@ -879,7 +878,7 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>19</v>
       </c>
@@ -900,12 +899,12 @@
       </c>
       <c r="L4" s="4"/>
       <c r="M4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>42</v>
@@ -918,12 +917,12 @@
         <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>43</v>
@@ -936,12 +935,12 @@
         <v>23</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>30</v>
@@ -954,10 +953,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -973,7 +972,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -988,7 +987,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>38</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>39</v>
       </c>
@@ -1022,55 +1021,55 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>85</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="10"/>
       <c r="J12" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D13" s="10"/>
       <c r="J13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D14" s="10"/>
       <c r="H14" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -1078,13 +1077,13 @@
         <v>35</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="D15" s="10"/>
       <c r="H15" s="8"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1096,7 +1095,7 @@
       <c r="H16" s="8"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1115,21 +1114,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="25.94140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -1140,310 +1139,310 @@
         <v>14</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="13"/>
       <c r="C8" s="7"/>
     </row>
-    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" t="s">
         <v>64</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>64</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
         <v>66</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>66</v>
       </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
       <c r="E19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>77</v>
       </c>
-      <c r="C20" t="s">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>77</v>
       </c>
-      <c r="F20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" t="s">
-        <v>79</v>
-      </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>101</v>
@@ -1452,12 +1451,12 @@
         <v>101</v>
       </c>
       <c r="G25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B26">
         <v>102</v>
@@ -1466,12 +1465,12 @@
         <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27">
         <v>103</v>
@@ -1480,12 +1479,12 @@
         <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28">
         <v>104</v>
@@ -1494,12 +1493,12 @@
         <v>104</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29">
         <v>105</v>
@@ -1508,11 +1507,11 @@
         <v>105</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:F24">
+  <sortState ref="A20:F24">
     <sortCondition ref="B20:B24"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1521,20 +1520,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1545,12 +1544,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>24</v>

--- a/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_1_river_assessment_202108.xlsx
+++ b/ONCHO/Breeding Site Survey/Togo/tg_oncho_bsa_1_river_assessment_202108.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\ONCHO\Breeding Site Survey\Togo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4B69E4-6707-46C4-9105-382F2B99F8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D91AAF-F766-443D-8FE1-6F8782B9CA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="111">
   <si>
     <t>form_title</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Non</t>
   </si>
   <si>
-    <t>geopoint</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
     <t>s_river_name</t>
   </si>
   <si>
-    <t>s_GPS</t>
-  </si>
-  <si>
     <t>s_notes</t>
   </si>
   <si>
@@ -143,12 +137,6 @@
     <t>Nom du bassin fluvial</t>
   </si>
   <si>
-    <t>Collectez les données GPS</t>
-  </si>
-  <si>
-    <t>Fonctionne mieux à l'extérieur des bâtiments</t>
-  </si>
-  <si>
     <t>Informations additionnelles</t>
   </si>
   <si>
@@ -356,10 +344,25 @@
     <t>Date</t>
   </si>
   <si>
-    <t>(Août 2021) 1. Enquête Entomologique d'ONCHO - Inspection de la rivière v5</t>
-  </si>
-  <si>
-    <t>tg_oncho_bsa_1_river_assessment_202108_v5</t>
+    <t>text</t>
+  </si>
+  <si>
+    <t>s_latitude</t>
+  </si>
+  <si>
+    <t>s_longitude</t>
+  </si>
+  <si>
+    <t>Entrer la latitude</t>
+  </si>
+  <si>
+    <t>Entrer la longitude</t>
+  </si>
+  <si>
+    <t>tg_oncho_bsa_1_river_assessment_202108_v6</t>
+  </si>
+  <si>
+    <t>(Août 2021) 1. Enquête Entomologique d'ONCHO - Inspection de la rivière V6</t>
   </si>
 </sst>
 </file>
@@ -846,13 +849,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C11" sqref="C11:D11"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -879,10 +882,10 @@
         <v>3</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>5</v>
@@ -891,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>7</v>
@@ -915,37 +918,37 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -953,7 +956,7 @@
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
       <c r="J3" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L3" s="25"/>
     </row>
@@ -962,10 +965,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -974,75 +977,75 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D5" s="5"/>
       <c r="J5" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D6" s="5"/>
       <c r="J6" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D7" s="5"/>
       <c r="J7" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="13"/>
@@ -1051,20 +1054,20 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8" s="13"/>
       <c r="L8" s="13"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15"/>
@@ -1073,20 +1076,20 @@
       <c r="H9" s="9"/>
       <c r="I9" s="13"/>
       <c r="J9" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="13"/>
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="15"/>
@@ -1095,110 +1098,113 @@
       <c r="H10" s="9"/>
       <c r="I10" s="13"/>
       <c r="J10" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K10" s="13"/>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>38</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="D11" s="16"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="23"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="J12" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D13" s="5"/>
       <c r="J13" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="H14" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="J14" s="26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="H15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>32</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="17"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
@@ -1210,10 +1216,10 @@
     </row>
     <row r="17" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C17" s="17"/>
       <c r="D17" s="17"/>
@@ -1226,9 +1232,21 @@
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="G18"/>
+      <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="5"/>
@@ -1236,9 +1254,14 @@
       <c r="G19"/>
     </row>
     <row r="20" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20"/>
-      <c r="D20"/>
+      <c r="B20" s="5"/>
+      <c r="D20" s="5"/>
       <c r="G20"/>
+    </row>
+    <row r="21" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21"/>
+      <c r="D21"/>
+      <c r="G21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1272,24 +1295,24 @@
         <v>3</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>17</v>
@@ -1302,7 +1325,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>18</v>
@@ -1315,64 +1338,64 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>19</v>
@@ -1383,7 +1406,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
@@ -1394,24 +1417,24 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1419,13 +1442,13 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1433,13 +1456,13 @@
         <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1447,13 +1470,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -1461,158 +1484,158 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" t="s">
         <v>69</v>
       </c>
-      <c r="B21" t="s">
-        <v>73</v>
-      </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
-        <v>79</v>
-      </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B28">
         <v>101</v>
@@ -1621,12 +1644,12 @@
         <v>101</v>
       </c>
       <c r="G28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B29">
         <v>102</v>
@@ -1635,12 +1658,12 @@
         <v>102</v>
       </c>
       <c r="G29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>103</v>
@@ -1649,12 +1672,12 @@
         <v>103</v>
       </c>
       <c r="G30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B31">
         <v>104</v>
@@ -1663,12 +1686,12 @@
         <v>104</v>
       </c>
       <c r="G31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B32">
         <v>105</v>
@@ -1677,7 +1700,7 @@
         <v>105</v>
       </c>
       <c r="G32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1718,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
@@ -1717,13 +1740,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
